--- a/tables/2.Documentación/cuadros_pedido52_preg21.xlsx
+++ b/tables/2.Documentación/cuadros_pedido52_preg21.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="165" documentId="11_6C58EDADFF34AE6A67D5180E6205C02C79839249" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D46080C-0E78-41D2-B449-2F19A4EDF36C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-16670" yWindow="2870" windowWidth="14400" windowHeight="7130" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preg21" sheetId="1" r:id="rId1"/>
@@ -535,12 +535,12 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -551,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,7 +573,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +584,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -617,12 +617,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
         <v>90.668966614489264</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1.5665323355779308</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +705,7 @@
         <v>7.7645010499328055</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -735,12 +735,12 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -766,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,7 +800,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,7 +817,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -864,13 +864,13 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>21</v>
@@ -928,7 +928,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
